--- a/public/downloads/household-billing-import-template.xlsx
+++ b/public/downloads/household-billing-import-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4B7904B-DDFA-B54C-B5F0-4C0A2E60E01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F274FA6-BDDA-F548-AADF-AEC8A410DC5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2420" yWindow="2620" windowWidth="27240" windowHeight="16440" xr2:uid="{34687F64-37EC-C746-A234-C80BC3DAE209}"/>
   </bookViews>
@@ -48,12 +48,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -77,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,7 +424,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -425,10 +433,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
